--- a/src/main/resources/static/excel/xlsx/work.xlsx
+++ b/src/main/resources/static/excel/xlsx/work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE93396-465D-4CEA-8473-648C9DB929C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F52D5E-4350-4D1E-9C2B-183638A2A3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>504656076415738001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +471,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,8 +509,8 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
